--- a/databases/info/SQL guide (WIP).xlsx
+++ b/databases/info/SQL guide (WIP).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillemci\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillemci\bullshit del sistema\Desktop\Montilivi-Repo1\databases\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D1E392-334C-4DE2-9284-5CDA56214AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78A0D79-95F5-4A0C-95CD-C69EE48A46F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="4" xr2:uid="{6E6AF07C-1ABB-4F30-BCDD-8262C605457A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="3" activeTab="14" xr2:uid="{6E6AF07C-1ABB-4F30-BCDD-8262C605457A}"/>
   </bookViews>
   <sheets>
     <sheet name="SELECT" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>SELECT</t>
   </si>
@@ -292,105 +292,6 @@
     <t>DESCRIBE EMPLOYEES;</t>
   </si>
   <si>
-    <t>Retorna la data actual del sistema en format YYYY-MM-DD. Útil per comparar dates sense tenir en compte l’hora.</t>
-  </si>
-  <si>
-    <t>Retorna l’hora actual del sistema en format HH:MM:SS. Només hora, sense data.</t>
-  </si>
-  <si>
-    <t>Retorna la data i hora actual del sistema en format YYYY-MM-DD HH:MM:SS. Combinació de CURDATE() i CURTIME().</t>
-  </si>
-  <si>
-    <t>Retorna l’any d’una data. Expr pot ser tipus DATE, DATETIME o TIMESTAMP.</t>
-  </si>
-  <si>
-    <t>Suma un interval de temps a una data. També hi ha DATE_SUB per restar intervals.</t>
-  </si>
-  <si>
-    <t>Retorna el nombre de dies entre date1 i date2. Només compta dies, ignora hores.</t>
-  </si>
-  <si>
-    <t>Retorna la diferència entre dues hores o temps. També funciona amb DATETIME, retornant el temps transcorregut.</t>
-  </si>
-  <si>
-    <t>Permet donar format a una data. Format amb símbols com %Y any, %d dia, %H hora, %i minuts.</t>
-  </si>
-  <si>
-    <t>Retorna el nom del dia de la setmana (Sunday, Monday, …). Retorna en anglès.</t>
-  </si>
-  <si>
-    <t>Retorna el dia del mes (1–31). Útil per filtrar per dia específic del mes.</t>
-  </si>
-  <si>
-    <t>Retorna l’índex del dia de la setmana (0=Monday, 6=Sunday). Diferent de DAYOFWEEK() que retorna 1=Sunday.</t>
-  </si>
-  <si>
-    <t>Retorna el dia de l’any (1–366). Comptant des de l’1 de gener.</t>
-  </si>
-  <si>
-    <t>Converteix un número de dies des del 0 de l’any 0 a una data. Poques vegades s’utilitza; útil amb funcions com TO_DAYS().</t>
-  </si>
-  <si>
-    <t>Converteix un timestamp UNIX a DATETIME. UNIX_TIMESTAMP compta segons des del 1970-01-01.</t>
-  </si>
-  <si>
-    <t>Converteix una data a timestamp UNIX. Permet comparar dates amb sistemes externs.</t>
-  </si>
-  <si>
-    <t>Retorna la diferència en mesos entre dos períodes YYYYMM. Els períodes han de ser en format YYYYMM.</t>
-  </si>
-  <si>
-    <t>CURDATE()</t>
-  </si>
-  <si>
-    <t>CURTIME()</t>
-  </si>
-  <si>
-    <t>NOW()</t>
-  </si>
-  <si>
-    <t>YEAR(expr)</t>
-  </si>
-  <si>
-    <t>DATE_ADD(date, INTERVAL expr unit)</t>
-  </si>
-  <si>
-    <t>DATEDIFF(date1, date2)</t>
-  </si>
-  <si>
-    <t>TIMEDIFF(time1, time2)</t>
-  </si>
-  <si>
-    <t>DATE_FORMAT(date, format)</t>
-  </si>
-  <si>
-    <t>DAYNAME(date)</t>
-  </si>
-  <si>
-    <t>DAYOFMONTH(date)</t>
-  </si>
-  <si>
-    <t>WEEKDAY(date)</t>
-  </si>
-  <si>
-    <t>DAYOFYEAR(date)</t>
-  </si>
-  <si>
-    <t>FROM_DAYS(n)</t>
-  </si>
-  <si>
-    <t>FROM_UNIXTIME(unix_timestamp, format)</t>
-  </si>
-  <si>
-    <t>UNIX_TIMESTAMP(date)</t>
-  </si>
-  <si>
-    <t>PERIOD_DIFF(period1, period2)</t>
-  </si>
-  <si>
-    <t>TIMESTAMPDIFF(unit, datetime_expr1, datetime_expr2)</t>
-  </si>
-  <si>
     <t>Estructura</t>
   </si>
   <si>
@@ -454,9 +355,6 @@
     <t>estructura</t>
   </si>
   <si>
-    <t>CONCAT_WS(separador, valor1, valor2, ..., valorN)</t>
-  </si>
-  <si>
     <t>ORDER BY</t>
   </si>
   <si>
@@ -469,16 +367,7 @@
     <t>IN</t>
   </si>
   <si>
-    <t>repeteix un carácter especificat per el numero de cops determinat</t>
-  </si>
-  <si>
-    <t>REPAT('S', LAST_NAME)</t>
-  </si>
-  <si>
     <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>no una funcio, pero serveix per afegir o restar un interval de temops</t>
   </si>
 </sst>
 </file>
@@ -590,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,12 +497,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -637,7 +520,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Enllaç" xfId="1" builtinId="8"/>
@@ -973,97 +861,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3559781A-866C-4BA9-A5DE-FE32F8D6CF0B}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -1093,14 +972,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1124,14 +1003,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1155,14 +1034,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1217,56 +1096,56 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1283,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F34BC2E-E56E-412C-A65D-018761E60EF5}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,123 +1177,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G14:L14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2:F2" location="SELECT!A1" display="SELECT" xr:uid="{A09D809E-3932-4AB9-9D1C-87118FC537BF}"/>
+    <hyperlink ref="A1:F1" location="SELECT!A1" display="SELECT" xr:uid="{A09D809E-3932-4AB9-9D1C-87118FC537BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1462,14 +1340,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1531,14 +1409,14 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1643,7 +1521,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,14 +1537,14 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1754,14 +1632,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1784,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44AC8D9-4DF4-484E-A90D-F459F4527A2C}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -1826,196 +1704,88 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21">
-        <f>D26</f>
-        <v>0</v>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6095A3CD-A78D-4D95-A3C2-4182C5CDD315}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -2045,7 +1815,7 @@
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2055,7 +1825,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2063,7 +1833,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2077,77 +1847,67 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
@@ -2169,7 +1929,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,14 +1940,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -2288,14 +2048,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2373,14 +2133,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
